--- a/src/test/resources/Test_Data/LMS_Data.xlsx
+++ b/src/test/resources/Test_Data/LMS_Data.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsatc\git\Team17_Testing_Squad\src\test\resources\Test_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12480" windowHeight="5415" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -12,7 +17,6 @@
     <sheet name="User" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1:K17"/>
 </workbook>
 </file>
 
@@ -205,9 +209,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>aaateam17</t>
-  </si>
-  <si>
     <t>team17</t>
   </si>
   <si>
@@ -227,18 +228,28 @@
   </si>
   <si>
     <t>team17 update</t>
+  </si>
+  <si>
+    <t>aaatmse17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -287,16 +298,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -672,7 +684,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -693,11 +705,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
@@ -705,10 +717,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>43</v>
@@ -725,28 +737,28 @@
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>30</v>
